--- a/FrontEnd/Lucas/WIP/Journal-de-Travail_Lordon-Lucas.xlsx
+++ b/FrontEnd/Lucas/WIP/Journal-de-Travail_Lordon-Lucas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pu61qgw\Documents\GitHub\P_WEB295\FrontEnd\Lucas\WIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F671DB2-2B91-44EB-8580-F248F799CDDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC13A2E8-0DE5-49B8-A186-19AAEA7FC68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -99,6 +99,18 @@
   </si>
   <si>
     <t>Repartion des tache, faire la maquette basse fidélitée de la page home</t>
+  </si>
+  <si>
+    <t>Je me rend compte que je n'ait pas savegarder la dernière version du JDT</t>
+  </si>
+  <si>
+    <t>rectifier des bug html css pour le main book</t>
+  </si>
+  <si>
+    <t>Fin de la page home en html css</t>
+  </si>
+  <si>
+    <t>Faire la partie auteur dans le home html css</t>
   </si>
 </sst>
 </file>
@@ -237,50 +249,6 @@
   </cellStyles>
   <dxfs count="13">
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
@@ -329,6 +297,50 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -343,7 +355,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}" name="Table2" displayName="Table2" ref="A5:F505" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}" name="Table2" displayName="Table2" ref="A5:F505" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A5:F505" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}">
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -351,14 +363,14 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F92771A6-FBDD-734E-AD68-EEBCABBE5406}" name="Semaine" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{F92771A6-FBDD-734E-AD68-EEBCABBE5406}" name="Semaine" dataDxfId="5">
       <calculatedColumnFormula>IF(ISBLANK(B6),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{8A6A2217-ACA1-B64A-AACC-E62161ECEC47}" name="Jour" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{7CF180A9-4021-614A-ABFA-FD02FA7EE89D}" name="Temps [h]" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{DA59D006-464D-084D-8523-AF3DB167EDE2}" name="Type" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{5207D366-301C-BA4D-A840-0D62AE8890E1}" name="Description" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{F7678D64-0216-D64A-A954-D1A966D4BF65}" name="Remarques/problèmes" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{8A6A2217-ACA1-B64A-AACC-E62161ECEC47}" name="Jour" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{7CF180A9-4021-614A-ABFA-FD02FA7EE89D}" name="Temps [h]" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{DA59D006-464D-084D-8523-AF3DB167EDE2}" name="Type" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{5207D366-301C-BA4D-A840-0D62AE8890E1}" name="Description" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{F7678D64-0216-D64A-A954-D1A966D4BF65}" name="Remarques/problèmes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -554,7 +566,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -619,7 +631,7 @@
       </c>
       <c r="C3" s="22">
         <f>SUM(C5:C495)</f>
-        <v>1.3888888888888888E-2</v>
+        <v>9.4444444444444442E-2</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
@@ -670,43 +682,78 @@
       <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+      <c r="A7" s="15">
+        <v>18</v>
+      </c>
+      <c r="B7" s="9">
+        <v>45411</v>
+      </c>
+      <c r="C7" s="23">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="str">
+      <c r="A8" s="15">
         <f>IF(ISBLANK(B8),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="B8" s="9">
+        <v>45411</v>
+      </c>
+      <c r="C8" s="23">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="str">
+      <c r="A9" s="15">
         <f>IF(ISBLANK(B9),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="B9" s="9">
+        <v>45411</v>
+      </c>
+      <c r="C9" s="23">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="str">
+      <c r="A10" s="15">
         <f>IF(ISBLANK(B10),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="B10" s="9">
+        <v>45411</v>
+      </c>
+      <c r="C10" s="23">
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -6157,19 +6204,19 @@
   </sheetData>
   <sheetProtection insertHyperlinks="0" selectLockedCells="1" sort="0" autoFilter="0"/>
   <conditionalFormatting sqref="D6:D505">
-    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="1" stopIfTrue="1">
       <formula>$D6="Meeting"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>$D6="Documentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="3" stopIfTrue="1">
       <formula>$D6="Test"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="4" stopIfTrue="1">
       <formula>$D6="Analyse"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
       <formula>$D6="Dévelopement"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6187,26 +6234,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="83ae57d85107fc73e8c281aedb059e49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b000e6a26fbebedf4c24f086a5622afe" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -6429,26 +6456,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146BE2DA-6117-4657-9EA0-437EBB1E64B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6465,4 +6493,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/FrontEnd/Lucas/WIP/Journal-de-Travail_Lordon-Lucas.xlsx
+++ b/FrontEnd/Lucas/WIP/Journal-de-Travail_Lordon-Lucas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pu61qgw\Documents\GitHub\P_WEB295\FrontEnd\Lucas\WIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC13A2E8-0DE5-49B8-A186-19AAEA7FC68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B176A59C-4F81-43D0-A6B6-2D4AC73133C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>Faire la partie auteur dans le home html css</t>
+  </si>
+  <si>
+    <t>explication 2 test formatifs</t>
   </si>
 </sst>
 </file>
@@ -566,7 +569,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -631,7 +634,7 @@
       </c>
       <c r="C3" s="22">
         <f>SUM(C5:C495)</f>
-        <v>9.4444444444444442E-2</v>
+        <v>0.10625</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
@@ -757,14 +760,22 @@
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="str">
+      <c r="A11" s="15">
         <f>IF(ISBLANK(B11),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="B11" s="9">
+        <v>45418</v>
+      </c>
+      <c r="C11" s="23">
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -6234,6 +6245,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="83ae57d85107fc73e8c281aedb059e49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b000e6a26fbebedf4c24f086a5622afe" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -6456,27 +6487,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146BE2DA-6117-4657-9EA0-437EBB1E64B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6493,23 +6523,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/FrontEnd/Lucas/WIP/Journal-de-Travail_Lordon-Lucas.xlsx
+++ b/FrontEnd/Lucas/WIP/Journal-de-Travail_Lordon-Lucas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pu61qgw\Documents\GitHub\P_WEB295\FrontEnd\Lucas\WIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B176A59C-4F81-43D0-A6B6-2D4AC73133C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D787B5C-99D1-4284-A041-A2CE4A79746A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="0" yWindow="1755" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -114,6 +114,15 @@
   </si>
   <si>
     <t>explication 2 test formatifs</t>
+  </si>
+  <si>
+    <t>mettre en vue la page home + commencer l'import des donnée depuis le backend</t>
+  </si>
+  <si>
+    <t>il manque la fin de journéee du JDT</t>
+  </si>
+  <si>
+    <t>Discution avec Sofiene sur l'avancer du projet et les taches à faires</t>
   </si>
 </sst>
 </file>
@@ -569,7 +578,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -634,7 +643,7 @@
       </c>
       <c r="C3" s="22">
         <f>SUM(C5:C495)</f>
-        <v>0.10625</v>
+        <v>0.18611111111111109</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
@@ -682,7 +691,9 @@
       <c r="E6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="11" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
@@ -779,25 +790,41 @@
       <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="str">
+      <c r="A12" s="15">
         <f>IF(ISBLANK(B12),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="B12" s="9">
+        <v>45418</v>
+      </c>
+      <c r="C12" s="23">
+        <v>6.9444444444444434E-2</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="str">
+      <c r="A13" s="15">
         <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="B13" s="9">
+        <v>45425</v>
+      </c>
+      <c r="C13" s="23">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">

--- a/FrontEnd/Lucas/WIP/Journal-de-Travail_Lordon-Lucas.xlsx
+++ b/FrontEnd/Lucas/WIP/Journal-de-Travail_Lordon-Lucas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pu61qgw\Documents\GitHub\P_WEB295\FrontEnd\Lucas\WIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D787B5C-99D1-4284-A041-A2CE4A79746A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1FAF05-629E-42DD-894E-992E05F6DC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1755" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -123,6 +123,15 @@
   </si>
   <si>
     <t>Discution avec Sofiene sur l'avancer du projet et les taches à faires</t>
+  </si>
+  <si>
+    <t>réglé les problème d'importation des données (je vérifiait que book mais pas author +JWT)</t>
+  </si>
+  <si>
+    <t>finir l'import des data sur la home page + modifier le code du header afin d'y integrer un menu déroulant</t>
+  </si>
+  <si>
+    <t>Discution de la répartition des tache ave sofienne + auto éval avec Mveng</t>
   </si>
 </sst>
 </file>
@@ -578,7 +587,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -643,7 +652,7 @@
       </c>
       <c r="C3" s="22">
         <f>SUM(C5:C495)</f>
-        <v>0.18611111111111109</v>
+        <v>0.28888888888888886</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
@@ -828,36 +837,60 @@
       <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="str">
+      <c r="A14" s="15">
         <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="B14" s="9">
+        <v>45425</v>
+      </c>
+      <c r="C14" s="23">
+        <v>1.9444444444444445E-2</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="str">
+      <c r="A15" s="15">
         <f>IF(ISBLANK(B15),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="B15" s="9">
+        <v>45425</v>
+      </c>
+      <c r="C15" s="23">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="str">
+      <c r="A16" s="15">
         <f>IF(ISBLANK(B16),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="B16" s="9">
+        <v>45426</v>
+      </c>
+      <c r="C16" s="23">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -6272,6 +6305,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
@@ -6280,15 +6322,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6515,20 +6548,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
     <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/FrontEnd/Lucas/WIP/Journal-de-Travail_Lordon-Lucas.xlsx
+++ b/FrontEnd/Lucas/WIP/Journal-de-Travail_Lordon-Lucas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pu61qgw\Documents\GitHub\P_WEB295\FrontEnd\Lucas\WIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1FAF05-629E-42DD-894E-992E05F6DC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD2CCF2-EC13-4C6D-97E3-26A35EA99B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -132,6 +132,15 @@
   </si>
   <si>
     <t>Discution de la répartition des tache ave sofienne + auto éval avec Mveng</t>
+  </si>
+  <si>
+    <t>Introduction du cour ( discution tests )</t>
+  </si>
+  <si>
+    <t>modifier le css de la page shearch book, réussir l'importation des cover depuis la src public</t>
+  </si>
+  <si>
+    <t>j'ai bloquer car je n'importait pas de public mais de assets</t>
   </si>
 </sst>
 </file>
@@ -268,7 +277,51 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <protection locked="0" hidden="0"/>
     </dxf>
@@ -376,7 +429,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}" name="Table2" displayName="Table2" ref="A5:F505" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}" name="Table2" displayName="Table2" ref="A5:F505" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A5:F505" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}">
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -384,14 +437,14 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F92771A6-FBDD-734E-AD68-EEBCABBE5406}" name="Semaine" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{F92771A6-FBDD-734E-AD68-EEBCABBE5406}" name="Semaine" dataDxfId="10">
       <calculatedColumnFormula>IF(ISBLANK(B6),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{8A6A2217-ACA1-B64A-AACC-E62161ECEC47}" name="Jour" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{7CF180A9-4021-614A-ABFA-FD02FA7EE89D}" name="Temps [h]" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{DA59D006-464D-084D-8523-AF3DB167EDE2}" name="Type" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{5207D366-301C-BA4D-A840-0D62AE8890E1}" name="Description" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{F7678D64-0216-D64A-A954-D1A966D4BF65}" name="Remarques/problèmes" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{8A6A2217-ACA1-B64A-AACC-E62161ECEC47}" name="Jour" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{7CF180A9-4021-614A-ABFA-FD02FA7EE89D}" name="Temps [h]" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{DA59D006-464D-084D-8523-AF3DB167EDE2}" name="Type" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{5207D366-301C-BA4D-A840-0D62AE8890E1}" name="Description" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{F7678D64-0216-D64A-A954-D1A966D4BF65}" name="Remarques/problèmes" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -587,7 +640,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -652,7 +705,7 @@
       </c>
       <c r="C3" s="22">
         <f>SUM(C5:C495)</f>
-        <v>0.28888888888888886</v>
+        <v>0.36041666666666661</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
@@ -894,26 +947,44 @@
       <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="str">
+      <c r="A17" s="15">
         <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="B17" s="9">
+        <v>45439</v>
+      </c>
+      <c r="C17" s="23">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="str">
+      <c r="A18" s="15">
         <f>IF(ISBLANK(B18),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="B18" s="9">
+        <v>45439</v>
+      </c>
+      <c r="C18" s="23">
+        <v>6.5972222222222224E-2</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="str">
@@ -6275,19 +6346,19 @@
   </sheetData>
   <sheetProtection insertHyperlinks="0" selectLockedCells="1" sort="0" autoFilter="0"/>
   <conditionalFormatting sqref="D6:D505">
-    <cfRule type="expression" dxfId="12" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
       <formula>$D6="Meeting"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>$D6="Documentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
       <formula>$D6="Test"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
       <formula>$D6="Analyse"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="6" stopIfTrue="1">
       <formula>$D6="Dévelopement"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6305,26 +6376,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="83ae57d85107fc73e8c281aedb059e49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b000e6a26fbebedf4c24f086a5622afe" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -6547,10 +6598,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146BE2DA-6117-4657-9EA0-437EBB1E64B8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6567,20 +6649,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146BE2DA-6117-4657-9EA0-437EBB1E64B8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/FrontEnd/Lucas/WIP/Journal-de-Travail_Lordon-Lucas.xlsx
+++ b/FrontEnd/Lucas/WIP/Journal-de-Travail_Lordon-Lucas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pu61qgw\Documents\GitHub\P_WEB295\FrontEnd\Lucas\WIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD2CCF2-EC13-4C6D-97E3-26A35EA99B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBE4A17-DCF3-4BC3-80EB-8E37AF5740B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>j'ai bloquer car je n'importait pas de public mais de assets</t>
+  </si>
+  <si>
+    <t>J'ai crée une base de donnée firebase qui stocke les images, code fait post et get</t>
+  </si>
+  <si>
+    <t>Tuto suivit : https://www.youtube.com/watch?v=CgMD6VykQXQ&amp;ab_channel=CodingwithKazim                 https://www.youtube.com/watch?v=VqnJwh6E9ak&amp;t=12s&amp;ab_channel=Academind            https://www.youtube.com/watch?v=0gWd-AS4cfY&amp;ab_channel=TechnicalRajni</t>
   </si>
 </sst>
 </file>
@@ -277,51 +283,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <protection locked="0" hidden="0"/>
     </dxf>
@@ -429,7 +391,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}" name="Table2" displayName="Table2" ref="A5:F505" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}" name="Table2" displayName="Table2" ref="A5:F505" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A5:F505" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}">
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -437,14 +399,14 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F92771A6-FBDD-734E-AD68-EEBCABBE5406}" name="Semaine" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{F92771A6-FBDD-734E-AD68-EEBCABBE5406}" name="Semaine" dataDxfId="5">
       <calculatedColumnFormula>IF(ISBLANK(B6),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{8A6A2217-ACA1-B64A-AACC-E62161ECEC47}" name="Jour" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{7CF180A9-4021-614A-ABFA-FD02FA7EE89D}" name="Temps [h]" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{DA59D006-464D-084D-8523-AF3DB167EDE2}" name="Type" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{5207D366-301C-BA4D-A840-0D62AE8890E1}" name="Description" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{F7678D64-0216-D64A-A954-D1A966D4BF65}" name="Remarques/problèmes" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{8A6A2217-ACA1-B64A-AACC-E62161ECEC47}" name="Jour" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{7CF180A9-4021-614A-ABFA-FD02FA7EE89D}" name="Temps [h]" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{DA59D006-464D-084D-8523-AF3DB167EDE2}" name="Type" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{5207D366-301C-BA4D-A840-0D62AE8890E1}" name="Description" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{F7678D64-0216-D64A-A954-D1A966D4BF65}" name="Remarques/problèmes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -640,7 +602,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -705,7 +667,7 @@
       </c>
       <c r="C3" s="22">
         <f>SUM(C5:C495)</f>
-        <v>0.36041666666666661</v>
+        <v>0.42638888888888882</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
@@ -987,15 +949,25 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="str">
+      <c r="A19" s="15">
         <f>IF(ISBLANK(B19),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="B19" s="9">
+        <v>45439</v>
+      </c>
+      <c r="C19" s="23">
+        <v>6.5972222222222224E-2</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="str">
@@ -6346,19 +6318,19 @@
   </sheetData>
   <sheetProtection insertHyperlinks="0" selectLockedCells="1" sort="0" autoFilter="0"/>
   <conditionalFormatting sqref="D6:D505">
-    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="1" stopIfTrue="1">
       <formula>$D6="Meeting"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>$D6="Documentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="3" stopIfTrue="1">
       <formula>$D6="Test"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="4" stopIfTrue="1">
       <formula>$D6="Analyse"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
       <formula>$D6="Dévelopement"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6376,6 +6348,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="83ae57d85107fc73e8c281aedb059e49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b000e6a26fbebedf4c24f086a5622afe" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -6598,27 +6590,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146BE2DA-6117-4657-9EA0-437EBB1E64B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6635,23 +6626,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/FrontEnd/Lucas/WIP/Journal-de-Travail_Lordon-Lucas.xlsx
+++ b/FrontEnd/Lucas/WIP/Journal-de-Travail_Lordon-Lucas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pu61qgw\Documents\GitHub\P_WEB295\FrontEnd\Lucas\WIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBE4A17-DCF3-4BC3-80EB-8E37AF5740B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE2B494-113F-4A34-8E83-40C224F5685D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>Tuto suivit : https://www.youtube.com/watch?v=CgMD6VykQXQ&amp;ab_channel=CodingwithKazim                 https://www.youtube.com/watch?v=VqnJwh6E9ak&amp;t=12s&amp;ab_channel=Academind            https://www.youtube.com/watch?v=0gWd-AS4cfY&amp;ab_channel=TechnicalRajni</t>
+  </si>
+  <si>
+    <t>Introduction du cour ( discution rendu projet )</t>
   </si>
 </sst>
 </file>
@@ -602,7 +605,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -667,7 +670,7 @@
       </c>
       <c r="C3" s="22">
         <f>SUM(C5:C495)</f>
-        <v>0.42638888888888882</v>
+        <v>0.43402777777777768</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
@@ -970,14 +973,22 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="str">
+      <c r="A20" s="15">
         <f>IF(ISBLANK(B20),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="B20" s="9">
+        <v>45440</v>
+      </c>
+      <c r="C20" s="23">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -6348,26 +6359,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="83ae57d85107fc73e8c281aedb059e49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b000e6a26fbebedf4c24f086a5622afe" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -6590,10 +6581,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146BE2DA-6117-4657-9EA0-437EBB1E64B8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6610,20 +6632,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146BE2DA-6117-4657-9EA0-437EBB1E64B8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/FrontEnd/Lucas/WIP/Journal-de-Travail_Lordon-Lucas.xlsx
+++ b/FrontEnd/Lucas/WIP/Journal-de-Travail_Lordon-Lucas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pu61qgw\Documents\GitHub\P_WEB295\FrontEnd\Lucas\WIP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c9c9d2fe7a36dcf/Documents/GitHub/P_WEB295/FrontEnd/Lucas/WIP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE2B494-113F-4A34-8E83-40C224F5685D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{FFE2B494-113F-4A34-8E83-40C224F5685D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D8E84DC-2535-43A7-AAB4-7936BE60F844}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -151,6 +151,15 @@
   <si>
     <t>Introduction du cour ( discution rendu projet )</t>
   </si>
+  <si>
+    <t>création du projet vue</t>
+  </si>
+  <si>
+    <t>Avancer sur la page search en vue (bug props + commencer recherche categorie)</t>
+  </si>
+  <si>
+    <t>Réglé les problème de donnée (backend modifie les id auteur,essay bulkCreate pour les data mais pas fonctionner)</t>
+  </si>
 </sst>
 </file>
 
@@ -230,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -282,57 +291,55 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="18">
     <dxf>
-      <protection locked="0" hidden="0"/>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="dd/mmm"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color theme="0"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -380,6 +387,55 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="dd/mmm"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -394,22 +450,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}" name="Table2" displayName="Table2" ref="A5:F505" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A5:F505" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}" name="Table2" displayName="Table2" ref="A5:F507" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A5:F507" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}">
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="4" hiddenButton="1"/>
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F92771A6-FBDD-734E-AD68-EEBCABBE5406}" name="Semaine" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{F92771A6-FBDD-734E-AD68-EEBCABBE5406}" name="Semaine" dataDxfId="15">
       <calculatedColumnFormula>IF(ISBLANK(B6),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{8A6A2217-ACA1-B64A-AACC-E62161ECEC47}" name="Jour" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{7CF180A9-4021-614A-ABFA-FD02FA7EE89D}" name="Temps [h]" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{DA59D006-464D-084D-8523-AF3DB167EDE2}" name="Type" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{5207D366-301C-BA4D-A840-0D62AE8890E1}" name="Description" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{F7678D64-0216-D64A-A954-D1A966D4BF65}" name="Remarques/problèmes" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{8A6A2217-ACA1-B64A-AACC-E62161ECEC47}" name="Jour" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{7CF180A9-4021-614A-ABFA-FD02FA7EE89D}" name="Temps [h]" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{DA59D006-464D-084D-8523-AF3DB167EDE2}" name="Type" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{5207D366-301C-BA4D-A840-0D62AE8890E1}" name="Description" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{F7678D64-0216-D64A-A954-D1A966D4BF65}" name="Remarques/problèmes" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -601,11 +657,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF2E8F1-C793-7E43-B3DE-C075053A97DA}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N505"/>
+  <dimension ref="A1:N507"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -669,8 +725,8 @@
         <v>12</v>
       </c>
       <c r="C3" s="22">
-        <f>SUM(C5:C495)</f>
-        <v>0.43402777777777768</v>
+        <f>SUM(C5:C497)</f>
+        <v>0.72777777777777775</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
@@ -723,39 +779,39 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
-        <v>18</v>
+      <c r="A7" s="24">
+        <f>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v>17</v>
       </c>
       <c r="B7" s="9">
-        <v>45411</v>
+        <v>45405</v>
       </c>
       <c r="C7" s="23">
-        <v>6.9444444444444447E-4</v>
+        <v>9.3055555555555558E-2</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
-        <f>IF(ISBLANK(B8),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>18</v>
       </c>
       <c r="B8" s="9">
         <v>45411</v>
       </c>
       <c r="C8" s="23">
-        <v>1.3888888888888888E-2</v>
+        <v>6.9444444444444447E-4</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="11"/>
     </row>
@@ -768,13 +824,13 @@
         <v>45411</v>
       </c>
       <c r="C9" s="23">
-        <v>4.1666666666666664E-2</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F9" s="11"/>
     </row>
@@ -787,32 +843,32 @@
         <v>45411</v>
       </c>
       <c r="C10" s="23">
-        <v>2.4305555555555556E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <f>IF(ISBLANK(B11),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="9">
-        <v>45418</v>
+        <v>45411</v>
       </c>
       <c r="C11" s="23">
-        <v>1.1805555555555555E-2</v>
+        <v>2.4305555555555556E-2</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F11" s="11"/>
     </row>
@@ -825,32 +881,32 @@
         <v>45418</v>
       </c>
       <c r="C12" s="23">
-        <v>6.9444444444444434E-2</v>
+        <v>1.1805555555555555E-2</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="9">
-        <v>45425</v>
+        <v>45418</v>
       </c>
       <c r="C13" s="23">
-        <v>1.0416666666666666E-2</v>
+        <v>6.9444444444444434E-2</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F13" s="11"/>
     </row>
@@ -863,13 +919,13 @@
         <v>45425</v>
       </c>
       <c r="C14" s="23">
-        <v>1.9444444444444445E-2</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14" s="11"/>
     </row>
@@ -882,13 +938,13 @@
         <v>45425</v>
       </c>
       <c r="C15" s="23">
-        <v>4.1666666666666664E-2</v>
+        <v>1.9444444444444445E-2</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" s="11"/>
     </row>
@@ -898,58 +954,56 @@
         <v>20</v>
       </c>
       <c r="B16" s="9">
-        <v>45426</v>
+        <v>45425</v>
       </c>
       <c r="C16" s="23">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+      <c r="A17" s="24">
         <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17" s="9">
-        <v>45439</v>
+        <v>45425</v>
       </c>
       <c r="C17" s="23">
-        <v>5.5555555555555558E-3</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <f>IF(ISBLANK(B18),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18" s="9">
-        <v>45439</v>
+        <v>45426</v>
       </c>
       <c r="C18" s="23">
-        <v>6.5972222222222224E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>33</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
@@ -960,17 +1014,15 @@
         <v>45439</v>
       </c>
       <c r="C19" s="23">
-        <v>6.5972222222222224E-2</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>35</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
@@ -978,50 +1030,78 @@
         <v>22</v>
       </c>
       <c r="B20" s="9">
+        <v>45439</v>
+      </c>
+      <c r="C20" s="23">
+        <v>6.5972222222222224E-2</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <f>IF(ISBLANK(B21),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v>22</v>
+      </c>
+      <c r="B21" s="9">
+        <v>45439</v>
+      </c>
+      <c r="C21" s="23">
+        <v>6.5972222222222224E-2</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
+        <f>IF(ISBLANK(B22),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v>22</v>
+      </c>
+      <c r="B22" s="9">
         <v>45440</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C22" s="23">
         <v>7.6388888888888886E-3</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E22" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="str">
-        <f>IF(ISBLANK(B21),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="str">
-        <f>IF(ISBLANK(B22),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
       <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="str">
+      <c r="A23" s="15">
         <f>IF(ISBLANK(B23),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="9">
+        <v>45440</v>
+      </c>
+      <c r="C23" s="23">
+        <v>0.11736111111111111</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -6326,27 +6406,66 @@
       <c r="E505" s="11"/>
       <c r="F505" s="11"/>
     </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A506" s="15" t="str">
+        <f>IF(ISBLANK(B506),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
+      <c r="B506" s="9"/>
+      <c r="C506" s="10"/>
+      <c r="D506" s="11"/>
+      <c r="E506" s="11"/>
+      <c r="F506" s="11"/>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A507" s="15" t="str">
+        <f>IF(ISBLANK(B507),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
+      <c r="B507" s="9"/>
+      <c r="C507" s="10"/>
+      <c r="D507" s="11"/>
+      <c r="E507" s="11"/>
+      <c r="F507" s="11"/>
+    </row>
   </sheetData>
   <sheetProtection insertHyperlinks="0" selectLockedCells="1" sort="0" autoFilter="0"/>
-  <conditionalFormatting sqref="D6:D505">
-    <cfRule type="expression" dxfId="12" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="D6 D8:D507">
+    <cfRule type="expression" dxfId="9" priority="6" stopIfTrue="1">
       <formula>$D6="Meeting"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>$D6="Documentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>$D6="Test"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
       <formula>$D6="Analyse"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="11" stopIfTrue="1">
       <formula>$D6="Dévelopement"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
+      <formula>$D7="Meeting"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>$D7="Documentation"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+      <formula>$D7="Test"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+      <formula>$D7="Analyse"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+      <formula>$D7="Dévelopement"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D505" xr:uid="{286A9366-4079-8F4A-9AB6-501A4911E2F7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D507" xr:uid="{286A9366-4079-8F4A-9AB6-501A4911E2F7}">
       <formula1>$I$2:$N$2</formula1>
     </dataValidation>
   </dataValidations>
@@ -6359,6 +6478,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="83ae57d85107fc73e8c281aedb059e49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b000e6a26fbebedf4c24f086a5622afe" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -6581,17 +6711,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6602,6 +6721,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146BE2DA-6117-4657-9EA0-437EBB1E64B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6620,17 +6750,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
   <ds:schemaRefs>
